--- a/Persons list.xlsx
+++ b/Persons list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/profile.php?id=100009376458100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маргарита Орбелян</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/orbelyanmargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оля Яремчук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/IaremchukOlga</t>
   </si>
 </sst>
 </file>
@@ -131,11 +143,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,12 +169,21 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="48"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +228,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,6 +242,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -251,7 +277,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="116.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="116.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="2" width="11.52"/>
   </cols>
   <sheetData>
@@ -409,7 +435,33 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" display="https://www.facebook.com/orbelyanmargo"/>
+    <hyperlink ref="D13" r:id="rId2" display="https://www.facebook.com/IaremchukOlga"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Persons list.xlsx
+++ b/Persons list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/IaremchukOlga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лиза Карпенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/profile.php?id=100015847895208</t>
   </si>
 </sst>
 </file>
@@ -266,10 +272,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -300,7 +306,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -455,12 +461,24 @@
       </c>
       <c r="D13" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1" display="https://www.facebook.com/orbelyanmargo"/>
     <hyperlink ref="D13" r:id="rId2" display="https://www.facebook.com/IaremchukOlga"/>
+    <hyperlink ref="D14" r:id="rId3" display="https://www.facebook.com/profile.php?id=100015847895208"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Persons list.xlsx
+++ b/Persons list.xlsx
@@ -275,7 +275,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,7 +306,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -320,7 +320,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -404,7 +404,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
@@ -418,7 +418,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>

--- a/Persons list.xlsx
+++ b/Persons list.xlsx
@@ -274,8 +274,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,7 +306,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -320,7 +320,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
